--- a/monitoring.xlsx
+++ b/monitoring.xlsx
@@ -5046,8 +5046,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P769"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C653" workbookViewId="0">
-      <selection activeCell="G657" sqref="G657"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5150,7 +5150,7 @@
         <v>100</v>
       </c>
       <c r="O2">
-        <v>77.86</v>
+        <v>77.849999999999994</v>
       </c>
       <c r="P2" t="s">
         <v>879</v>
